--- a/others/UserStories.xlsx
+++ b/others/UserStories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1171461_isep_ipp_pt/Documents/PM-SWITCH-G03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruimiguelborges/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_CF67308A177AC3690EEE09C135D1D5BF5375A17C" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F214F543-CBAC-3F43-ABCE-2844311CFD8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5387A7-EE87-3049-938F-E366B9768B2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="ReactUI_completed" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$O$96</definedName>
   </definedNames>
   <calcPr calcId="179016"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="187">
   <si>
     <t>Sprint</t>
   </si>
@@ -55,9 +55,6 @@
     </r>
   </si>
   <si>
-    <t>User stories</t>
-  </si>
-  <si>
     <t>API Rest HATEOAS</t>
   </si>
   <si>
@@ -466,13 +463,157 @@
   </si>
   <si>
     <t>Como Gestor de projeto, quero poder escolher o mecanismo de cálculo de custo, nomeadamente o que fazer quando os períodos de reporting não coincidem com os de custos dos colaboradores.</t>
+  </si>
+  <si>
+    <t>REDUX</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>Complemento</t>
+  </si>
+  <si>
+    <t>ligado a US 112</t>
+  </si>
+  <si>
+    <t>LAST SPRINT</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>US G01: Como product owner quero que seja implementado uma side-bar com as opções (i) project, (ii) task, (iii) user.</t>
+  </si>
+  <si>
+    <t>US C100: Como product owner quero que seja implementado uma side-bar com as opções (i) project, (ii) task, (iii) user, para o collaborator.</t>
+  </si>
+  <si>
+    <t>US C110: Quero que ao clicar na opção "Projects" na side bar sejam listados todos os projectos a que pertenço.</t>
+  </si>
+  <si>
+    <t>US C120: Quero que seja implementado um menu colapsável em cada projeto para ver detalhes do mesmo.</t>
+  </si>
+  <si>
+    <t>US C130: Quero que no menu colapsável com detalhes sobre o projecto, apareça um botão "All Tasks", que redirecione o user para todas as tarefas do projecto.</t>
+  </si>
+  <si>
+    <t>US PM120: Quero que seja implementado um menu colapsável em cada projeto para ver detalhes do mesmo.</t>
+  </si>
+  <si>
+    <t>Métodos Backend</t>
+  </si>
+  <si>
+    <t>Rest Controller</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Estado Conclusão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User stories</t>
+  </si>
+  <si>
+    <t>US G02: Como product owner, quero que seja implementado um design para botão com efeitos de sistematização.</t>
+  </si>
+  <si>
+    <t>US G03: Como product owner, quero que seja implementado um design barra de pesquisa com efeitos de sistematização.</t>
+  </si>
+  <si>
+    <t>US G05: Como product owner, quero que seja implementado um design para drop down box com efeitos de sistematização.</t>
+  </si>
+  <si>
+    <t>US PM100: Quero que ao clicar na opção "Projects" na side bar sejam listados todos os projectos a que pertenço, com sinalização daqueles em que sou PM.</t>
+  </si>
+  <si>
+    <t>US C200: Quero que o colaborador, dentro da opção " My Tasks" na side bar, possa consultar uma lista de todas as suas tarefas.</t>
+  </si>
+  <si>
+    <t>US G06: Como product owner, quero que seja implementado um design para menu colapsável para listar projectos.</t>
+  </si>
+  <si>
+    <t>US G07: Como product owner, quero que seja implementado um design para menu colapsável para listar tarefas.</t>
+  </si>
+  <si>
+    <t>US C190: Quero que seja implementado um menu colapsável em cada tarefa para ver detalhes da mesma.</t>
+  </si>
+  <si>
+    <t>US PM190: Quero que seja implementado um menu colapsável em cada tarefa para ver detalhes da mesma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US130 - US A100: Quero que o administrador, ao clicar na opção "Users" na side bar possa consultar uma lista de todos os users. </t>
+  </si>
+  <si>
+    <t>US135 - US A110: Quero que seja adicionada uma barra de pesquisa por email, dentro da opção "Users".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US136 - US A120: Quero que seja adicionada um botão (dropbox down) de pesquisa por perfil, dentro da opção "Users". </t>
+  </si>
+  <si>
+    <t>US110 &amp; US112 - US A140: Quero que no botão/dropdown em cada user listado pela opção "Users", seja adicionada a opção para mudar o perfl do respetivo user.</t>
+  </si>
+  <si>
+    <t>US320 - US D210: Quero que os projetos listados pela opção "Projects" contenham o estado do projeto.</t>
+  </si>
+  <si>
+    <t>US310 - US D220: Quero que os projetos listados pela opção "Projects", contenham um botão, com a opção para definir o mecanismo de custo.</t>
+  </si>
+  <si>
+    <t>US204v2 - US C140: No menu com todas as tarefas do projeto, quero que apareça em cada tarefa, um botão "Add collaborator" para o colaborador se adicionar à tarefa.</t>
+  </si>
+  <si>
+    <t>US301v2 - US D110: Quero que o diretor possa ver um botão para criar projeto.</t>
+  </si>
+  <si>
+    <t>US356 - US PM130: Quero que no menu colapsável com detalhes sobre o projecto, apareça um botão "All Tasks", que redirecione o user para todas as tarefas do projecto. Se for PM desse projeto, quero que apareça um botão "View requests".</t>
+  </si>
+  <si>
+    <t>US340v2 - US PM140: Quero que no menu colapsável com detalhes sobre o projecto, apareça um botão para adicionar colaboradores ao projecto.</t>
+  </si>
+  <si>
+    <t>US350v2 - US PM150: Quero que no menu colapsável com detalhes sobre o projecto, apareça um botão para criar tarefas para o projecto.</t>
+  </si>
+  <si>
+    <t>US390 &amp; US392 - US PM160: Quero que no menu colapsável com detalhes sobre o projecto, apareça os respectivos botões para o calculo do custo.</t>
+  </si>
+  <si>
+    <t>US345 &amp; US361 - US PM170: No menu com todas as tarefas do projeto, quero que apareça em cada tarefa, um botão "Add collaborator" para adicionar um colaborador à tarefa e outro botão "Delete task" para eliminar a tarefa.</t>
+  </si>
+  <si>
+    <t>US370v2 &amp; US375 - US PM180: Quero que ao consultar todas as tarefas do projecto seja permitido filtra por tarefas concluidas, a decorrer e não iniciadas.</t>
+  </si>
+  <si>
+    <t>US A130: Quero que em cada user listado pela opção "Users", contenha um botão, com várias opções.</t>
+  </si>
+  <si>
+    <t>US G04: Como product owner, quero que seja implementado um design que contenha botões, com várias opções, com efeitos de sistematização.</t>
+  </si>
+  <si>
+    <t>US320 - US D100: Quero que o director, dentro da opção "Projects" na side bar, possa consultar uma lista de todos os projectos.</t>
+  </si>
+  <si>
+    <t>US D120: Quero que seja implementado um menu colapsável em cada projeto para ver detalhes do mesmo.</t>
+  </si>
+  <si>
+    <t>US203v2 &amp; US210 &amp; US211- US C210: Quero que apareça uma opção para filtrar as tarefas por estado.</t>
+  </si>
+  <si>
+    <t>US 360 - US PM110: Quero que apareça um filtro para ver tarefas sem colaboradores.</t>
+  </si>
+  <si>
+    <t>Fábio</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -557,7 +698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +756,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -973,6 +1120,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -986,6 +1136,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1308,1375 +1461,2247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="B19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="164.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="41" customWidth="1"/>
-    <col min="6" max="6" width="0.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="14.42578125" style="41"/>
-    <col min="10" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="14.5" style="19"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="164.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="41" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.5" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5" style="41" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="41" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="L1" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+    </row>
+    <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D2" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="39" t="s">
+      <c r="H2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J2" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.95">
-      <c r="A2" s="15" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+    </row>
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="J4" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="J5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+    </row>
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="J6" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="J7" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" s="40"/>
+    </row>
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="J8" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+    </row>
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E9" s="39" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.95">
-      <c r="A3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.95">
-      <c r="A4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.95">
-      <c r="A5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.95">
-      <c r="A6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.95">
-      <c r="A7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.95">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.95">
-      <c r="A9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>12</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.95">
-      <c r="A10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>26</v>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+    </row>
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.95">
-      <c r="A11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>27</v>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+    </row>
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.95">
-      <c r="A12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
+      <c r="G11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="J11" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+    </row>
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.95">
-      <c r="A13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>31</v>
+      <c r="G12" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="J12" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.95">
-      <c r="A14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
+      <c r="G13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="J13" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+    </row>
+    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.95">
-      <c r="A15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>33</v>
+      <c r="G14" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="J14" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.95">
-      <c r="A16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>34</v>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.95">
-      <c r="A17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>35</v>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+    </row>
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.95">
-      <c r="A18" s="18" t="s">
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>36</v>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.95">
-      <c r="A19" s="18" t="s">
+      <c r="G18" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>37</v>
+      <c r="D19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.95">
-      <c r="A20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>38</v>
+      <c r="G19" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+    </row>
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.95">
+      <c r="G20" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+    </row>
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>21</v>
-      </c>
       <c r="D21" s="13" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.95">
-      <c r="A22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+    </row>
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="42">
-      <c r="A23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+    </row>
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="E23" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.95">
-      <c r="A24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>44</v>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.95">
-      <c r="A25" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+    </row>
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" spans="1:9" ht="27.95">
-      <c r="A26" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="40"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.95">
-      <c r="A27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>49</v>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+    </row>
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.95">
-      <c r="A28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+    </row>
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.95">
-      <c r="A29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>52</v>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+    </row>
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.95">
-      <c r="A30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+    </row>
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F30" s="22"/>
-      <c r="G30" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.95">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+    </row>
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="40" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.95">
-      <c r="A32" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>56</v>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+    </row>
+    <row r="32" spans="1:14" ht="42" x14ac:dyDescent="0.15">
+      <c r="A32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="40" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.95">
-      <c r="A33" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>57</v>
+      <c r="J32" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+    </row>
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.95">
-      <c r="A34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+    </row>
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A34" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.95">
-      <c r="A35" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="J34" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+    </row>
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="J35" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.15">
+      <c r="A36" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>60</v>
+      <c r="D36" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="H36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="G37" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J37" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F38" s="22"/>
-      <c r="G38" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>21</v>
-      </c>
       <c r="D39" s="13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>66</v>
+      <c r="D41" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
+      </c>
+      <c r="H41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="22"/>
-      <c r="G42" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>70</v>
+      <c r="J42" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F43" s="22"/>
-      <c r="G43" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="40"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>71</v>
+      <c r="D44" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F44" s="22"/>
-      <c r="G44" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="40"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>72</v>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F45" s="22"/>
-      <c r="G45" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="40"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="36" t="s">
-        <v>73</v>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F46" s="22"/>
-      <c r="G46" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>74</v>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H47" s="40"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>75</v>
+        <v>52</v>
+      </c>
+      <c r="J47" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F48" s="22"/>
-      <c r="G48" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="40"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>76</v>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>21</v>
-      </c>
       <c r="D50" s="13" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F50" s="22"/>
-      <c r="G50" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>79</v>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F51" s="22"/>
-      <c r="G51" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51" s="40"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A53" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>81</v>
+      <c r="G52" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="J53" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A55" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="J54" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="30" customHeight="1">
-      <c r="A56" s="16" t="s">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K56" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+    </row>
+    <row r="57" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K57" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A57" s="16" t="s">
+      <c r="E58" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" s="40"/>
+      <c r="J58" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="D59" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H57" s="40"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A58" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="36" t="s">
+      <c r="E59" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="J59" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H58" s="40"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A59" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A60" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>87</v>
       </c>
       <c r="C60" s="34"/>
       <c r="D60" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-    </row>
-    <row r="65" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-    </row>
-    <row r="66" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B66" s="43"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="45"/>
-    </row>
-    <row r="67" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B67" s="43"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="43"/>
-    </row>
-    <row r="68" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B68" s="43"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="43"/>
-    </row>
-    <row r="69" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B69" s="43"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="45"/>
-    </row>
-    <row r="70" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B70" s="43"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="43"/>
-    </row>
-    <row r="71" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B71" s="43"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-    </row>
-    <row r="72" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B72" s="43"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-    </row>
-    <row r="73" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-    </row>
-    <row r="74" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-    </row>
-    <row r="75" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-    </row>
-    <row r="76" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
+        <v>87</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="43"/>
+      <c r="D70" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="44"/>
+      <c r="D74" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="43"/>
+      <c r="D78" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I60" xr:uid="{EA6A7D03-B76A-9141-A024-F3683425519C}">
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="S8"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A23:I60">
-      <sortCondition ref="E1:E60"/>
-    </sortState>
-  </autoFilter>
-  <sortState ref="A2:I60">
-    <sortCondition ref="A42"/>
+  <autoFilter ref="A2:O96" xr:uid="{5C5612B7-601D-0647-94B9-04D67E6928FB}"/>
+  <sortState ref="A3:I61">
+    <sortCondition ref="A43"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2686,48 +3711,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF3D0D7-5B98-CF44-B874-D5BA1904EC07}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{62FCA742-2871-5D47-BD96-7C5324D94567}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.1" customHeight="1">
-      <c r="A1" s="76" t="s">
-        <v>9</v>
+    <row r="1" spans="1:18" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="77" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="76"/>
+    </row>
+    <row r="2" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="78"/>
+      <c r="B2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="75"/>
-    </row>
-    <row r="2" spans="1:18" ht="14.1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="53" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" s="67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
@@ -2745,13 +3770,13 @@
       <c r="Q2" s="68"/>
       <c r="R2" s="69"/>
     </row>
-    <row r="3" spans="1:18" ht="14.1">
-      <c r="A3" s="77"/>
+    <row r="3" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="78"/>
       <c r="B3" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
@@ -2769,13 +3794,13 @@
       <c r="Q3" s="68"/>
       <c r="R3" s="69"/>
     </row>
-    <row r="4" spans="1:18" ht="14.1">
-      <c r="A4" s="77"/>
+    <row r="4" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="78"/>
       <c r="B4" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
@@ -2793,13 +3818,13 @@
       <c r="Q4" s="55"/>
       <c r="R4" s="57"/>
     </row>
-    <row r="5" spans="1:18" ht="14.1">
+    <row r="5" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="59"/>
       <c r="B5" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
@@ -2817,13 +3842,13 @@
       <c r="Q5" s="55"/>
       <c r="R5" s="57"/>
     </row>
-    <row r="6" spans="1:18" ht="14.1">
+    <row r="6" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="59"/>
       <c r="B6" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
@@ -2841,13 +3866,13 @@
       <c r="Q6" s="55"/>
       <c r="R6" s="57"/>
     </row>
-    <row r="7" spans="1:18" ht="14.1">
+    <row r="7" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="59"/>
       <c r="B7" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -2865,13 +3890,13 @@
       <c r="Q7" s="55"/>
       <c r="R7" s="57"/>
     </row>
-    <row r="8" spans="1:18" ht="14.1">
+    <row r="8" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="59"/>
       <c r="B8" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -2889,13 +3914,13 @@
       <c r="Q8" s="55"/>
       <c r="R8" s="57"/>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
       <c r="B9" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="65"/>
@@ -2913,20 +3938,20 @@
       <c r="Q9" s="72"/>
       <c r="R9" s="58"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="60"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="60"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="B12" t="s">
-        <v>101</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
@@ -2938,9 +3963,9 @@
       <c r="J12" s="60"/>
       <c r="K12" s="60"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
@@ -2952,20 +3977,20 @@
       <c r="J13" s="60"/>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="1:18" ht="14.1" thickBot="1">
+    <row r="14" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="52" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="52" t="s">
+      <c r="B15" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="C15" s="61" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>106</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -2978,13 +4003,13 @@
       <c r="L15" s="62"/>
       <c r="M15" s="56"/>
     </row>
-    <row r="16" spans="1:18" ht="14.1">
+    <row r="16" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="53"/>
       <c r="B16" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -2997,13 +4022,13 @@
       <c r="L16" s="55"/>
       <c r="M16" s="57"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="65"/>
@@ -3016,54 +4041,54 @@
       <c r="L17" s="65"/>
       <c r="M17" s="66"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1">
+    <row r="18" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="55"/>
       <c r="B18" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="14.1">
-      <c r="B19" t="s">
+      <c r="C19" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="14.1">
-      <c r="B20" t="s">
+      <c r="C20" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="B22" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="B23" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="B24" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="B25" t="s">
-        <v>116</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
@@ -3077,9 +4102,9 @@
       <c r="L25" s="60"/>
       <c r="M25" s="60"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
@@ -3106,136 +4131,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9166912A-7BB2-964D-9D73-7F5BE8A06B40}">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{D76D580B-F066-5FA0-9701-83682EE32BCD}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="119.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="119.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="33">
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="C2" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="D2" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="42" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.15">
+      <c r="A3" s="46" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.95">
-      <c r="A3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>123</v>
       </c>
       <c r="C3" s="47"/>
       <c r="D3" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.15">
+      <c r="A4" s="46" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.95">
-      <c r="A4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>126</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.95">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.15">
       <c r="A5" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="C5" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="D5" s="48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.15">
+      <c r="A6" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.95">
-      <c r="A6" s="46" t="s">
+      <c r="B6" s="48" t="s">
         <v>130</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>131</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.95">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.15">
       <c r="A7" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="C7" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.15">
+      <c r="A8" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.95">
-      <c r="A8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="C8" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="50" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.15">
+      <c r="A9" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.95">
-      <c r="A9" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="C9" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="38" x14ac:dyDescent="0.15">
+      <c r="A10" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="38.1">
-      <c r="A10" s="49" t="s">
+      <c r="B10" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>139</v>
-      </c>
       <c r="C10" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
